--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,15 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>parentId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>gfdjgj</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>.model</t>
+  </si>
+  <si>
+    <t>.data</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -362,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,14 +395,113 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
+      <c r="A1" s="0">
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
